--- a/ner/flair/flair_ner.xlsx
+++ b/ner/flair/flair_ner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>flair_ner_recd_ents</t>
+          <t>entities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>flair_label</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>eval</t>
+          <t>labels</t>
         </is>
       </c>
     </row>
@@ -489,7 +484,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.6453856825828552}]</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -507,7 +501,6 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -525,7 +518,6 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -543,7 +535,6 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -561,7 +552,6 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -587,7 +577,6 @@
           <t>[{'value': 'PER', 'confidence': 0.9036426544189453}]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -605,7 +594,6 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -623,7 +611,6 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -649,7 +636,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.7651021480560303}]</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -667,7 +653,6 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -685,7 +670,6 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -711,7 +695,6 @@
           <t>[{'value': 'PER', 'confidence': 0.9998599290847778}]</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -729,7 +712,6 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -755,7 +737,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.8487916588783264}]</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -773,7 +754,6 @@
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -799,7 +779,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.6385192275047302}]</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -825,7 +804,6 @@
           <t>[{'value': 'PER', 'confidence': 0.30335044860839844}]</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -843,7 +821,6 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -869,7 +846,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.9049899280071259}]</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -895,7 +871,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.823235273361206}]</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -913,7 +888,6 @@
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -931,7 +905,6 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -949,7 +922,6 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -967,7 +939,6 @@
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -985,7 +956,6 @@
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1011,7 +981,6 @@
           <t>[{'value': 'MISC', 'confidence': 0.5210999846458435}]</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1029,7 +998,6 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1047,7 +1015,6 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1065,7 +1032,6 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1083,7 +1049,6 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1101,7 +1066,6 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1119,7 +1083,6 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1137,7 +1100,6 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1155,7 +1117,6 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1173,7 +1134,6 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1191,7 +1151,6 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1209,7 +1168,6 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1227,7 +1185,6 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1253,7 +1210,6 @@
           <t>[{'value': 'MISC', 'confidence': 0.7634705305099487}]</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1271,7 +1227,6 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1289,7 +1244,6 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1315,7 +1269,6 @@
           <t>[{'value': 'PER', 'confidence': 0.9933949112892151}]</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1341,7 +1294,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.5700140595436096}]</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1359,7 +1311,6 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1377,7 +1328,6 @@
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1403,7 +1353,6 @@
           <t>[{'value': 'PER', 'confidence': 0.7677894234657288}]</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1429,7 +1378,6 @@
           <t>[{'value': 'PER', 'confidence': 0.8898167014122009}]</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1447,7 +1395,6 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1473,7 +1420,6 @@
           <t>[{'value': 'MISC', 'confidence': 0.5184696316719055}]</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1491,7 +1437,6 @@
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1509,7 +1454,6 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1527,7 +1471,6 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1545,7 +1488,6 @@
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1571,7 +1513,6 @@
           <t>[{'value': 'MISC', 'confidence': 0.687163233757019}]</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1597,7 +1538,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.6259630918502808}]</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1615,7 +1555,6 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1641,7 +1580,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.4148951470851898}]</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1659,7 +1597,6 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1677,7 +1614,6 @@
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1695,7 +1631,6 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1721,7 +1656,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.8418413400650024}]</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1747,7 +1681,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.7990823984146118}]</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1773,7 +1706,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.4781491160392761}]</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1791,7 +1723,6 @@
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1809,7 +1740,6 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1827,7 +1757,6 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1845,7 +1774,6 @@
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1863,7 +1791,6 @@
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1889,7 +1816,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.5996453762054443}]</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1907,7 +1833,6 @@
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1925,7 +1850,6 @@
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1943,7 +1867,6 @@
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1961,7 +1884,6 @@
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1987,7 +1909,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.6579641699790955}]</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2013,7 +1934,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.5863341093063354}]</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2039,7 +1959,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9652401804924011}]</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2065,7 +1984,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9936841130256653}]</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2083,7 +2001,6 @@
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2101,7 +2018,6 @@
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2119,7 +2035,6 @@
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2137,7 +2052,6 @@
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2155,7 +2069,6 @@
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2181,7 +2094,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.7429398894309998}]</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2207,7 +2119,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.804219663143158}]</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2233,7 +2144,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9562998414039612}]</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2259,7 +2169,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.7988338470458984}]</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2285,7 +2194,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.7131891250610352}]</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2303,7 +2211,6 @@
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2321,7 +2228,6 @@
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2339,7 +2245,6 @@
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2357,7 +2262,6 @@
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2375,7 +2279,6 @@
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2401,7 +2304,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9246239960193634}]</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2427,7 +2329,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9978072047233582}]</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2453,7 +2354,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9990133047103882}]</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2479,7 +2379,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9995337724685669}]</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2497,7 +2396,6 @@
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2523,7 +2421,6 @@
           <t>[{'value': 'PER', 'confidence': 0.673760712146759}]</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2541,7 +2438,6 @@
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2567,7 +2463,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.7063435316085815}]</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2585,7 +2480,6 @@
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2603,7 +2497,6 @@
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2629,7 +2522,6 @@
           <t>[{'value': 'PER', 'confidence': 0.9964053630828857}]</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2655,7 +2547,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9938545227050781}]</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2681,7 +2572,6 @@
           <t>[{'value': 'LOC', 'confidence': 0.9979748129844666}]</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2699,7 +2589,6 @@
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2717,7 +2606,6 @@
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2735,7 +2623,6 @@
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2753,7 +2640,6 @@
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2771,7 +2657,6 @@
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2789,7 +2674,6 @@
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2815,7 +2699,6 @@
           <t>[{'value': 'ORG', 'confidence': 0.5634161829948425}]</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2833,7 +2716,6 @@
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2851,7 +2733,6 @@
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2869,7 +2750,6 @@
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
